--- a/src/test/resources/parse-test-all-free-type-input.xlsx
+++ b/src/test/resources/parse-test-all-free-type-input.xlsx
@@ -70,7 +70,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Date String</t>
+    <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -662,7 +662,9 @@
       <c r="O2" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="2"/>
+      <c r="P2" s="2">
+        <v>41972.679710648146</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
